--- a/application/plugins/Reports_balance/views/Reports_balance.xlsx
+++ b/application/plugins/Reports_balance/views/Reports_balance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t xml:space="preserve">БАЛАНС</t>
   </si>
@@ -84,25 +84,140 @@
     <t xml:space="preserve">АКТИВ</t>
   </si>
   <si>
-    <t xml:space="preserve">{$v-&gt;active[]-&gt;acc_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$v-&gt;active[]-&gt;acc_code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$v-&gt;active[]-&gt;leftover0}</t>
+    <t xml:space="preserve">{$v-&gt;active-&gt;rows[]-&gt;acc_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{$v-&gt;active-&gt;rows[]-&gt;acc_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{$v-&gt;active-&gt;rows[]-&gt;leftover0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{$v-&gt;active-&gt;total}</t>
   </si>
   <si>
     <t xml:space="preserve">ПАССИВ</t>
   </si>
   <si>
-    <t xml:space="preserve">{$v-&gt;passive[]-&gt;acc_name}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$v-&gt;passive[]-&gt;acc_code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{$v-&gt;passive[]-&gt;leftover0}</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{$v-&gt;passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[]-&gt;acc_name}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{$v-&gt;passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;rows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[]-&gt;acc_code}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{$v-&gt;passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;rows</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">[]-&gt;leftover0}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">{$v-&gt;passive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-&gt;total}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -269,15 +384,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -361,13 +476,14 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="26.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -452,10 +568,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -464,10 +580,9 @@
         <v>0</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="n">
-        <f aca="false">SUM(E13)</f>
-        <v>0</v>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,7 +599,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8"/>
@@ -492,14 +607,14 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,10 +622,9 @@
         <v>0</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11" t="n">
-        <f aca="false">SUM(E17)</f>
-        <v>0</v>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
